--- a/Sample Data Sets/PR8 virus + MAbs NPR-05 -07 -11/sample_table.xlsx
+++ b/Sample Data Sets/PR8 virus + MAbs NPR-05 -07 -11/sample_table.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Gotheburg University\Diary\2021-06-23_MUNANA+MAbs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R projects\Kinetic-MUNANA-App\Sample Data Sets\PR8 virus + MAbs NPR-05 -07 -11\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D016906-AB42-4399-9B75-AFC3FB53026A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -126,9 +127,6 @@
     <t>H6</t>
   </si>
   <si>
-    <t>PR8+6A1</t>
-  </si>
-  <si>
     <t>PR8+NPR-05</t>
   </si>
   <si>
@@ -136,12 +134,15 @@
   </si>
   <si>
     <t>PR8+NPR-11</t>
+  </si>
+  <si>
+    <t>PR8+IgG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -175,7 +176,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -452,20 +453,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -476,353 +477,353 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C2">
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C3">
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C4">
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C5">
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C6">
         <v>62.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C7">
         <v>31.3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <v>15.6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C9">
         <v>7.8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>62.5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>31.3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>15.6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>7.8</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18">
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19">
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20">
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21">
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22">
         <v>62.5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23">
         <v>31.3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24">
         <v>15.6</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25">
         <v>7.8</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26">
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28">
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29">
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30">
         <v>62.5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31">
         <v>31.3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32">
         <v>15.6</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33">
         <v>7.8</v>
